--- a/zabbix_host.xlsx
+++ b/zabbix_host.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10365"/>
+    <workbookView windowWidth="23280" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,282 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
-  <si>
-    <t>主机ip</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>主机名称</t>
   </si>
   <si>
+    <t>主机可见名称</t>
+  </si>
+  <si>
     <t>操作系统</t>
+  </si>
+  <si>
+    <t>主机IP</t>
+  </si>
+  <si>
+    <t>模板</t>
+  </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>192.168.3.25</t>
+  </si>
+  <si>
+    <t>IPO发行管理系统_192.168.3.25</t>
+  </si>
+  <si>
+    <t>LINUX</t>
+  </si>
+  <si>
+    <t>192.168.3.71</t>
+  </si>
+  <si>
+    <t>TD用户行为分析系统_192.168.3.71</t>
+  </si>
+  <si>
+    <t>192.168.3.72</t>
+  </si>
+  <si>
+    <t>TD用户行为分析系统_192.168.3.72</t>
+  </si>
+  <si>
+    <t>192.25.97.75</t>
+  </si>
+  <si>
+    <t>TD用户行为分析系统192.25.97.75</t>
+  </si>
+  <si>
+    <t>192.25.97.76</t>
+  </si>
+  <si>
+    <t>TD用户行为分析系统192.25.97.76</t>
+  </si>
+  <si>
+    <t>198.25.100.61</t>
+  </si>
+  <si>
+    <t>IPO发行管理系统_198.25.100.61</t>
+  </si>
+  <si>
+    <t>WINDOWS</t>
+  </si>
+  <si>
+    <t>198.25.100.62</t>
+  </si>
+  <si>
+    <t>IPO发行管理系统_198.25.100.62</t>
+  </si>
+  <si>
+    <t>198.25.100.75</t>
+  </si>
+  <si>
+    <t>灵活自助数据服务平台（敏捷BI）_198.25.100.75</t>
+  </si>
+  <si>
+    <t>198.25.100.76</t>
+  </si>
+  <si>
+    <t>灵活自助数据服务平台（敏捷BI）_198.25.100.76</t>
+  </si>
+  <si>
+    <t>129.25.98.52</t>
+  </si>
+  <si>
+    <t>IT知识库_129.25.98.52</t>
+  </si>
+  <si>
+    <t>129.25.98.62</t>
+  </si>
+  <si>
+    <t>IT知识库_129.25.98.62</t>
+  </si>
+  <si>
+    <t>10.25.98.43</t>
+  </si>
+  <si>
+    <t>财务核算模块_10.25.98.43</t>
+  </si>
+  <si>
+    <t>10.25.98.44</t>
+  </si>
+  <si>
+    <t>财务核算模块_10.25.98.44</t>
+  </si>
+  <si>
+    <t>10.25.98.71</t>
+  </si>
+  <si>
+    <t>IPO发行管理系统_10.25.98.71</t>
+  </si>
+  <si>
+    <t>10.25.98.72</t>
+  </si>
+  <si>
+    <t>IPO发行管理系统_10.25.98.72</t>
+  </si>
+  <si>
+    <t>10.25.98.74</t>
+  </si>
+  <si>
+    <t>灵活自助数据服务平台（敏捷BI）_10.25.98.74</t>
+  </si>
+  <si>
+    <t>10.25.98.204</t>
+  </si>
+  <si>
+    <t>财务影像系统_10.25.98.204</t>
+  </si>
+  <si>
+    <t>10.25.98.205</t>
+  </si>
+  <si>
+    <t>财务影像系统_10.25.98.205</t>
+  </si>
+  <si>
+    <t>198.25.100.206</t>
+  </si>
+  <si>
+    <t>灵活自助数据服务平台（敏捷BI）_198.25.100.206</t>
+  </si>
+  <si>
+    <t>198.25.100.207</t>
+  </si>
+  <si>
+    <t>灵活自助数据服务平台（敏捷BI）_198.25.100.207</t>
+  </si>
+  <si>
+    <t>192.25.97.167</t>
+  </si>
+  <si>
+    <t>财务BI系统_192.25.97.167</t>
+  </si>
+  <si>
+    <t>198.25.100.236</t>
+  </si>
+  <si>
+    <t>财务BI系统_198.25.100.236</t>
+  </si>
+  <si>
+    <t>10.25.98.30</t>
+  </si>
+  <si>
+    <t>灵活自助数据服务平台（敏捷BI）_10.25.98.30</t>
+  </si>
+  <si>
+    <t>198.25.100.30</t>
+  </si>
+  <si>
+    <t>性能容量分析系统_198.25.100.30</t>
+  </si>
+  <si>
+    <t>129.25.98.129</t>
+  </si>
+  <si>
+    <t>财务核算模块_129.25.98.129</t>
+  </si>
+  <si>
+    <t>129.25.98.133</t>
+  </si>
+  <si>
+    <t>财务核算模块_129.25.98.133</t>
+  </si>
+  <si>
+    <t>192.25.97.142</t>
+  </si>
+  <si>
+    <t>财务影像系统_192.25.97.142</t>
+  </si>
+  <si>
+    <t>192.25.97.143</t>
+  </si>
+  <si>
+    <t>财务影像系统_192.25.97.143</t>
+  </si>
+  <si>
+    <t>192.25.97.144</t>
+  </si>
+  <si>
+    <t>财务影像系统_192.25.97.144</t>
+  </si>
+  <si>
+    <t>192.25.97.145</t>
+  </si>
+  <si>
+    <t>财务影像系统_192.25.97.145</t>
+  </si>
+  <si>
+    <t>192.25.97.146</t>
+  </si>
+  <si>
+    <t>财务影像系统_192.25.97.146</t>
+  </si>
+  <si>
+    <t>192.25.97.147</t>
+  </si>
+  <si>
+    <t>财务影像系统_192.25.97.147</t>
+  </si>
+  <si>
+    <t>10.25.97.70</t>
+  </si>
+  <si>
+    <t>财务影像系统_10.25.97.70</t>
+  </si>
+  <si>
+    <t>198.25.101.96</t>
+  </si>
+  <si>
+    <t>灵活自助数据服务平台（敏捷BI）_198.25.101.96</t>
+  </si>
+  <si>
+    <t>129.25.99.15</t>
+  </si>
+  <si>
+    <t>集团CRM129.25.99.15</t>
+  </si>
+  <si>
+    <t>129.25.99.16</t>
+  </si>
+  <si>
+    <t>集团CRM129.25.99.16</t>
+  </si>
+  <si>
+    <t>129.25.99.17</t>
+  </si>
+  <si>
+    <t>集团CRM129.25.99.17</t>
+  </si>
+  <si>
+    <t>129.25.99.18</t>
+  </si>
+  <si>
+    <t>集团CRM129.25.99.18</t>
+  </si>
+  <si>
+    <t>129.25.99.19</t>
+  </si>
+  <si>
+    <t>集团CRM129.25.99.19</t>
+  </si>
+  <si>
+    <t>129.25.99.20</t>
+  </si>
+  <si>
+    <t>集团CRM129.25.99.20</t>
+  </si>
+  <si>
+    <t>129.25.99.21</t>
+  </si>
+  <si>
+    <t>集团CRM129.25.99.21</t>
+  </si>
+  <si>
+    <t>129.25.99.22</t>
+  </si>
+  <si>
+    <t>集团CRM129.25.99.22</t>
   </si>
 </sst>
 </file>
@@ -32,12 +299,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,12 +314,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -60,8 +373,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -75,53 +389,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,23 +435,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,9 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,23 +469,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,19 +479,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD4EDF9"/>
+        <bgColor rgb="FFD4EDF9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4FAFD"/>
+        <bgColor rgb="FFF4FAFD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,13 +659,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,144 +671,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -400,11 +685,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFEAEAEA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFEAEAEA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFEAEAEA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFEAEAEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,6 +750,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,58 +792,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,153 +802,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,15 +1308,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,6 +1330,603 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="14.3" customHeight="1" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/zabbix_host.xlsx
+++ b/zabbix_host.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10365"/>
+    <workbookView windowWidth="23280" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>主机名称</t>
   </si>
@@ -29,18 +29,24 @@
   <si>
     <t>主机IP</t>
   </si>
+  <si>
+    <t>proxy</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +70,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -71,107 +143,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +175,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -192,19 +190,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -223,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,8 +461,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +493,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,44 +534,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,137 +560,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +701,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,22 +1054,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F2" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="42.75" customWidth="1"/>
+    <col min="6" max="6" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,6 +1083,124 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:4">
+      <c r="A9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:4">
+      <c r="A12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:4">
+      <c r="A14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:4">
+      <c r="A15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:4">
+      <c r="A18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:4">
+      <c r="A19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:4">
+      <c r="A21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:4">
+      <c r="A22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:4">
+      <c r="A23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:4">
+      <c r="A28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zabbix_host.xlsx
+++ b/zabbix_host.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="9945"/>
+    <workbookView windowWidth="23280" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>主机名称</t>
   </si>
@@ -35,6 +35,9 @@
   <si>
     <t>group</t>
   </si>
+  <si>
+    <t>template</t>
+  </si>
 </sst>
 </file>
 
@@ -42,9 +45,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -258,163 +261,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,13 +566,13 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,10 +584,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,28 +608,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -635,37 +638,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,19 +665,31 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,13 +1057,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F14"/>
+      <selection activeCell="A2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -1068,9 +1071,10 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="42.75" customWidth="1"/>
     <col min="6" max="6" width="30.625" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,6 +1093,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="4"/>
@@ -1193,14 +1200,6 @@
     <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="4"/>
       <c r="D27" s="4"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:4">
-      <c r="A29" s="4"/>
-      <c r="D29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zabbix_host.xlsx
+++ b/zabbix_host.xlsx
@@ -49,7 +49,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,11 +73,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -261,6 +256,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -309,6 +310,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,6 +328,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,43 +394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,137 +558,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,9 +699,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,18 +1049,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="33.125" customWidth="1"/>
     <col min="5" max="5" width="42.75" customWidth="1"/>
     <col min="6" max="6" width="30.625" customWidth="1"/>
     <col min="7" max="7" width="32.375" customWidth="1"/>
@@ -1096,110 +1088,6 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="4"/>
-      <c r="D27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
